--- a/report/summary_NIKKEI_M5_2020-2023_2.xlsx
+++ b/report/summary_NIKKEI_M5_2020-2023_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -486,34 +486,175 @@
         <v>2023</v>
       </c>
       <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>3.4</v>
+      </c>
+      <c r="H2">
+        <v>400</v>
+      </c>
+      <c r="I2">
+        <v>400</v>
+      </c>
+      <c r="J2">
+        <v>150</v>
+      </c>
+      <c r="K2">
+        <v>19830</v>
+      </c>
+      <c r="L2">
+        <v>7209</v>
+      </c>
+      <c r="M2">
+        <v>-800</v>
+      </c>
+      <c r="N2">
+        <v>19030</v>
+      </c>
+      <c r="O2">
+        <v>0.3492856152032182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>2.7</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>2260</v>
+      </c>
+      <c r="L3">
+        <v>10386</v>
+      </c>
+      <c r="M3">
+        <v>-589</v>
+      </c>
+      <c r="N3">
+        <v>1671</v>
+      </c>
+      <c r="O3">
+        <v>0.3754092046986328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
         <v>70</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <v>50</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K4">
         <v>-103056</v>
       </c>
-      <c r="L2">
+      <c r="L4">
         <v>34294</v>
       </c>
-      <c r="M2">
+      <c r="M4">
         <v>-656</v>
       </c>
-      <c r="N2">
+      <c r="N4">
         <v>-103712</v>
       </c>
-      <c r="O2">
+      <c r="O4">
         <v>0.354814253222138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>-189857</v>
+      </c>
+      <c r="L5">
+        <v>32030</v>
+      </c>
+      <c r="M5">
+        <v>-703</v>
+      </c>
+      <c r="N5">
+        <v>-190560</v>
+      </c>
+      <c r="O5">
+        <v>0.2517015298157977</v>
       </c>
     </row>
   </sheetData>

--- a/report/summary_NIKKEI_M5_2020-2023_2.xlsx
+++ b/report/summary_NIKKEI_M5_2020-2023_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -486,39 +486,39 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H2">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K2">
-        <v>19830</v>
+        <v>93332</v>
       </c>
       <c r="L2">
-        <v>7209</v>
+        <v>12753</v>
       </c>
       <c r="M2">
-        <v>-800</v>
+        <v>-778</v>
       </c>
       <c r="N2">
-        <v>19030</v>
+        <v>92554</v>
       </c>
       <c r="O2">
-        <v>0.3492856152032182</v>
+        <v>0.3254136281659217</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -533,39 +533,39 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K3">
-        <v>2260</v>
+        <v>19830</v>
       </c>
       <c r="L3">
-        <v>10386</v>
+        <v>7209</v>
       </c>
       <c r="M3">
-        <v>-589</v>
+        <v>-800</v>
       </c>
       <c r="N3">
-        <v>1671</v>
+        <v>19030</v>
       </c>
       <c r="O3">
-        <v>0.3754092046986328</v>
+        <v>0.3492856152032182</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,39 +580,39 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>-103056</v>
+        <v>8546</v>
       </c>
       <c r="L4">
-        <v>34294</v>
+        <v>16033</v>
       </c>
       <c r="M4">
-        <v>-656</v>
+        <v>-756</v>
       </c>
       <c r="N4">
-        <v>-103712</v>
+        <v>7790</v>
       </c>
       <c r="O4">
-        <v>0.354814253222138</v>
+        <v>0.3369924530655523</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -627,33 +627,221 @@
         <v>2023</v>
       </c>
       <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>2.7</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>2260</v>
+      </c>
+      <c r="L5">
+        <v>10386</v>
+      </c>
+      <c r="M5">
+        <v>-589</v>
+      </c>
+      <c r="N5">
+        <v>1671</v>
+      </c>
+      <c r="O5">
+        <v>0.3754092046986328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="G6">
+        <v>3.8</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>450</v>
+      </c>
+      <c r="J6">
+        <v>400</v>
+      </c>
+      <c r="K6">
+        <v>-10688</v>
+      </c>
+      <c r="L6">
+        <v>4107</v>
+      </c>
+      <c r="M6">
+        <v>-848</v>
+      </c>
+      <c r="N6">
+        <v>-11536</v>
+      </c>
+      <c r="O6">
+        <v>0.3316289262235208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G7">
+        <v>2.4</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>450</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>-84628</v>
+      </c>
+      <c r="L7">
+        <v>12105</v>
+      </c>
+      <c r="M7">
+        <v>-756</v>
+      </c>
+      <c r="N7">
+        <v>-85384</v>
+      </c>
+      <c r="O7">
+        <v>0.2682362660057827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>50</v>
       </c>
-      <c r="I5">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-103056</v>
+      </c>
+      <c r="L8">
+        <v>34294</v>
+      </c>
+      <c r="M8">
+        <v>-656</v>
+      </c>
+      <c r="N8">
+        <v>-103712</v>
+      </c>
+      <c r="O8">
+        <v>0.354814253222138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
         <v>150</v>
       </c>
-      <c r="J5">
+      <c r="J9">
         <v>100</v>
       </c>
-      <c r="K5">
+      <c r="K9">
         <v>-189857</v>
       </c>
-      <c r="L5">
+      <c r="L9">
         <v>32030</v>
       </c>
-      <c r="M5">
+      <c r="M9">
         <v>-703</v>
       </c>
-      <c r="N5">
+      <c r="N9">
         <v>-190560</v>
       </c>
-      <c r="O5">
+      <c r="O9">
         <v>0.2517015298157977</v>
       </c>
     </row>

--- a/report/summary_NIKKEI_M5_2020-2023_2.xlsx
+++ b/report/summary_NIKKEI_M5_2020-2023_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -533,39 +533,39 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H3">
         <v>400</v>
       </c>
       <c r="I3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>19830</v>
+        <v>31221</v>
       </c>
       <c r="L3">
-        <v>7209</v>
+        <v>20737</v>
       </c>
       <c r="M3">
-        <v>-800</v>
+        <v>-703</v>
       </c>
       <c r="N3">
-        <v>19030</v>
+        <v>30518</v>
       </c>
       <c r="O3">
-        <v>0.3492856152032182</v>
+        <v>0.331533008631914</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,39 +580,39 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I4">
         <v>400</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4">
-        <v>8546</v>
+        <v>19830</v>
       </c>
       <c r="L4">
-        <v>16033</v>
+        <v>7209</v>
       </c>
       <c r="M4">
-        <v>-756</v>
+        <v>-800</v>
       </c>
       <c r="N4">
-        <v>7790</v>
+        <v>19030</v>
       </c>
       <c r="O4">
-        <v>0.3369924530655523</v>
+        <v>0.3492856152032182</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -627,39 +627,39 @@
         <v>2023</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I5">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>2260</v>
+        <v>8546</v>
       </c>
       <c r="L5">
-        <v>10386</v>
+        <v>16033</v>
       </c>
       <c r="M5">
-        <v>-589</v>
+        <v>-756</v>
       </c>
       <c r="N5">
-        <v>1671</v>
+        <v>7790</v>
       </c>
       <c r="O5">
-        <v>0.3754092046986328</v>
+        <v>0.3369924530655523</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -674,39 +674,39 @@
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H6">
         <v>300</v>
       </c>
       <c r="I6">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J6">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>-10688</v>
+        <v>2260</v>
       </c>
       <c r="L6">
-        <v>4107</v>
+        <v>10386</v>
       </c>
       <c r="M6">
-        <v>-848</v>
+        <v>-589</v>
       </c>
       <c r="N6">
-        <v>-11536</v>
+        <v>1671</v>
       </c>
       <c r="O6">
-        <v>0.3316289262235208</v>
+        <v>0.3754092046986328</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -721,39 +721,39 @@
         <v>2023</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G7">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I7">
         <v>450</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K7">
-        <v>-84628</v>
+        <v>-10688</v>
       </c>
       <c r="L7">
-        <v>12105</v>
+        <v>4107</v>
       </c>
       <c r="M7">
-        <v>-756</v>
+        <v>-848</v>
       </c>
       <c r="N7">
-        <v>-85384</v>
+        <v>-11536</v>
       </c>
       <c r="O7">
-        <v>0.2682362660057827</v>
+        <v>0.3316289262235208</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -768,39 +768,39 @@
         <v>2023</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="K8">
-        <v>-103056</v>
+        <v>-15640</v>
       </c>
       <c r="L8">
-        <v>34294</v>
+        <v>8165</v>
       </c>
       <c r="M8">
-        <v>-656</v>
+        <v>-756</v>
       </c>
       <c r="N8">
-        <v>-103712</v>
+        <v>-16396</v>
       </c>
       <c r="O8">
-        <v>0.354814253222138</v>
+        <v>0.2486221677893448</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -815,33 +815,315 @@
         <v>2023</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>-189857</v>
+        <v>-18922</v>
       </c>
       <c r="L9">
-        <v>32030</v>
+        <v>22136</v>
       </c>
       <c r="M9">
         <v>-703</v>
       </c>
       <c r="N9">
+        <v>-19625</v>
+      </c>
+      <c r="O9">
+        <v>0.3261203469461511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>250</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10">
+        <v>-67743</v>
+      </c>
+      <c r="L10">
+        <v>11137</v>
+      </c>
+      <c r="M10">
+        <v>-756</v>
+      </c>
+      <c r="N10">
+        <v>-68499</v>
+      </c>
+      <c r="O10">
+        <v>0.1811978091047859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>2.4</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>450</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>-84628</v>
+      </c>
+      <c r="L11">
+        <v>12105</v>
+      </c>
+      <c r="M11">
+        <v>-756</v>
+      </c>
+      <c r="N11">
+        <v>-85384</v>
+      </c>
+      <c r="O11">
+        <v>0.2682362660057827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>70</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-103056</v>
+      </c>
+      <c r="L12">
+        <v>34294</v>
+      </c>
+      <c r="M12">
+        <v>-656</v>
+      </c>
+      <c r="N12">
+        <v>-103712</v>
+      </c>
+      <c r="O12">
+        <v>0.354814253222138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>2.1</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>450</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>-106624</v>
+      </c>
+      <c r="L13">
+        <v>14567</v>
+      </c>
+      <c r="M13">
+        <v>-756</v>
+      </c>
+      <c r="N13">
+        <v>-107380</v>
+      </c>
+      <c r="O13">
+        <v>0.2664927576028008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>350</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>-130701</v>
+      </c>
+      <c r="L14">
+        <v>37669</v>
+      </c>
+      <c r="M14">
+        <v>-658</v>
+      </c>
+      <c r="N14">
+        <v>-131359</v>
+      </c>
+      <c r="O14">
+        <v>0.312086861875813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>150</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>-189857</v>
+      </c>
+      <c r="L15">
+        <v>32030</v>
+      </c>
+      <c r="M15">
+        <v>-703</v>
+      </c>
+      <c r="N15">
         <v>-190560</v>
       </c>
-      <c r="O9">
+      <c r="O15">
         <v>0.2517015298157977</v>
       </c>
     </row>
